--- a/src/main/resources/word/temp_明细表.xlsx
+++ b/src/main/resources/word/temp_明细表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25460" windowHeight="12080"/>
+    <workbookView windowWidth="25460" windowHeight="10640"/>
   </bookViews>
   <sheets>
     <sheet name="0602HOMETECH" sheetId="1" r:id="rId1"/>
@@ -14,16 +14,13 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId5"/>
-    <externalReference r:id="rId6"/>
-    <externalReference r:id="rId7"/>
-    <externalReference r:id="rId8"/>
   </externalReferences>
   <definedNames>
     <definedName name="_?" localSheetId="3">#REF!</definedName>
     <definedName name="__?">#REF!</definedName>
     <definedName name="_??????" localSheetId="3">#REF!</definedName>
     <definedName name="__??????">#REF!</definedName>
-    <definedName name="aa">[3]XL4Poppy!$C$39</definedName>
+    <definedName name="aa">[1]XL4Poppy!$C$39</definedName>
     <definedName name="Document_array" localSheetId="3">{"Book1","出口货物明细单 继兴GZ2010-4-16.xls"}</definedName>
     <definedName name="_xlnm.Print_Area" hidden="1">#REF!</definedName>
     <definedName name="Print_Area_MI" localSheetId="3">#REF!</definedName>
@@ -34,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58">
   <si>
     <t>广 东 省 新 立 电 子 信 息 进 出 口 有 限 公 司</t>
   </si>
@@ -45,31 +42,31 @@
     <t>部门:</t>
   </si>
   <si>
-    <t>五部</t>
+    <t>{{deptName}}</t>
   </si>
   <si>
     <t>装运口岸：</t>
   </si>
   <si>
-    <t>埔老港关</t>
-  </si>
-  <si>
-    <t>出口合同号：DS180809</t>
+    <t>{{packingKouAn}}</t>
+  </si>
+  <si>
+    <t>出口合同号：{{buyingContractNo}}</t>
   </si>
   <si>
     <t>目的口岸：</t>
   </si>
   <si>
-    <t>利比亚</t>
-  </si>
-  <si>
-    <t>收购合同号：DS180809</t>
+    <t>{{sendingKouAn}}</t>
+  </si>
+  <si>
+    <t>收购合同号：{{sellingContractNo}}</t>
   </si>
   <si>
     <t>成交价格：</t>
   </si>
   <si>
-    <t>FOB</t>
+    <t>{{dealPrice}}</t>
   </si>
   <si>
     <t>品名及规格</t>
@@ -117,19 +114,43 @@
     <t>合计</t>
   </si>
   <si>
-    <t>清洗剂</t>
-  </si>
-  <si>
-    <t>个</t>
-  </si>
-  <si>
-    <t>USD</t>
-  </si>
-  <si>
-    <t>东尚</t>
-  </si>
-  <si>
-    <t>除锈润滑剂</t>
+    <t>{{$fe:items t.goodName</t>
+  </si>
+  <si>
+    <t>t.quantity</t>
+  </si>
+  <si>
+    <t>t.goodsUnit</t>
+  </si>
+  <si>
+    <t>t.sellingPriceUnit</t>
+  </si>
+  <si>
+    <t>t.sellingPrice</t>
+  </si>
+  <si>
+    <t>t.subtotalSellingPrice</t>
+  </si>
+  <si>
+    <t>t.googsProducer</t>
+  </si>
+  <si>
+    <t>t.buyingPrice</t>
+  </si>
+  <si>
+    <t>t.taxCost</t>
+  </si>
+  <si>
+    <t>t.subtotalBuyingPrice</t>
+  </si>
+  <si>
+    <t>refundTax</t>
+  </si>
+  <si>
+    <t>t.exportCost</t>
+  </si>
+  <si>
+    <t>t.remark}}</t>
   </si>
   <si>
     <t>复核：</t>
@@ -138,31 +159,13 @@
     <t>经办：</t>
   </si>
   <si>
-    <t>陈选丽</t>
-  </si>
-  <si>
     <t>换汇成本</t>
   </si>
   <si>
-    <r>
-      <t>日期：2018-08</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>10</t>
-    </r>
+    <t>t.hhcb}}</t>
+  </si>
+  <si>
+    <t>日期：</t>
   </si>
   <si>
     <t>出口货物明细单 继兴GZ2010-4-16.xls</t>
@@ -211,20 +214,20 @@
   <numFmts count="17">
     <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="178" formatCode="0.00_ "/>
-    <numFmt numFmtId="179" formatCode="0.0_);[Red]\(0.0\)"/>
-    <numFmt numFmtId="180" formatCode="_(&quot;$&quot;* #,##0.0_);_(&quot;$&quot;* \(#,##0.0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="181" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="182" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="178" formatCode="0.0_);[Red]\(0.0\)"/>
+    <numFmt numFmtId="179" formatCode="0.00_ "/>
+    <numFmt numFmtId="180" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="181" formatCode="mm/dd/yy_)"/>
+    <numFmt numFmtId="182" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="183" formatCode="mmm\ dd\,\ yy"/>
-    <numFmt numFmtId="184" formatCode="0.0000_ "/>
-    <numFmt numFmtId="185" formatCode="_-&quot;￥&quot;* #,##0.00_-;\-&quot;￥&quot;* #,##0.00_-;_-&quot;￥&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="184" formatCode="_-&quot;￥&quot;* #,##0.00_-;\-&quot;￥&quot;* #,##0.00_-;_-&quot;￥&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="185" formatCode="0.0000_);[Red]\(0.0000\)"/>
     <numFmt numFmtId="186" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="187" formatCode="_-&quot;￥&quot;* #,##0_-;\-&quot;￥&quot;* #,##0_-;_-&quot;￥&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="187" formatCode="0.0000_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="188" formatCode="mm/dd/yy_)"/>
-    <numFmt numFmtId="189" formatCode="0.0000_);[Red]\(0.0000\)"/>
+    <numFmt numFmtId="188" formatCode="_(&quot;$&quot;* #,##0.0_);_(&quot;$&quot;* \(#,##0.0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="189" formatCode="_-&quot;￥&quot;* #,##0_-;\-&quot;￥&quot;* #,##0_-;_-&quot;￥&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="190" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="35">
@@ -236,7 +239,6 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
       <charset val="0"/>
     </font>
     <font>
@@ -249,7 +251,6 @@
       <sz val="10"/>
       <color indexed="10"/>
       <name val="Arial"/>
-      <family val="2"/>
       <charset val="0"/>
     </font>
     <font>
@@ -257,7 +258,6 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <family val="2"/>
       <charset val="0"/>
     </font>
     <font>
@@ -277,21 +277,15 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color indexed="8"/>
+      <color indexed="56"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color indexed="56"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -302,11 +296,21 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color indexed="56"/>
+      <sz val="11"/>
+      <color indexed="10"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <charset val="0"/>
     </font>
     <font>
       <u/>
@@ -318,7 +322,6 @@
     <font>
       <sz val="12"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
       <charset val="0"/>
     </font>
     <font>
@@ -343,28 +346,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="黑体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color indexed="17"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
+      <color indexed="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -376,12 +360,17 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="60"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
-      <i/>
-      <sz val="16"/>
-      <name val="Helv"/>
-      <family val="2"/>
-      <charset val="0"/>
+      <sz val="18"/>
+      <color indexed="56"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -391,11 +380,59 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="20"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="16"/>
+      <name val="Helv"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="蹈框"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="黑体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color indexed="56"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+    </font>
+    <font>
       <b/>
       <sz val="20"/>
       <color indexed="8"/>
       <name val="黑体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -406,52 +443,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="20"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="60"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="蹈框"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color indexed="56"/>
+      <color indexed="17"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -489,7 +482,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="44"/>
+        <fgColor indexed="51"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -507,7 +500,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="11"/>
+        <fgColor indexed="26"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="44"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="36"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="30"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -519,31 +560,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="45"/>
+        <fgColor indexed="11"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="22"/>
+        <fgColor indexed="57"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="9"/>
+        <fgColor indexed="10"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="31"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="26"/>
+        <fgColor indexed="52"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -561,55 +596,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="51"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="36"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="30"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="55"/>
+        <fgColor indexed="31"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="53"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="52"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="29"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -749,6 +742,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -773,17 +781,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="22"/>
+      <left style="double">
+        <color indexed="63"/>
       </left>
-      <right style="thin">
-        <color indexed="22"/>
+      <right style="double">
+        <color indexed="63"/>
       </right>
-      <top style="thin">
-        <color indexed="22"/>
+      <top style="double">
+        <color indexed="63"/>
       </top>
-      <bottom style="thin">
-        <color indexed="22"/>
+      <bottom style="double">
+        <color indexed="63"/>
       </bottom>
       <diagonal/>
     </border>
@@ -814,21 +822,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color indexed="63"/>
-      </left>
-      <right style="double">
-        <color indexed="63"/>
-      </right>
-      <top style="double">
-        <color indexed="63"/>
-      </top>
-      <bottom style="double">
-        <color indexed="63"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -842,196 +835,196 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="49" fontId="18" fillId="13" borderId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="13" borderId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="13" borderId="0">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="13" borderId="0">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="13" borderId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="29" fillId="13" borderId="7" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="8" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="11" borderId="7" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="49" fontId="32" fillId="11" borderId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="11" borderId="0">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="11" borderId="0">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="28" fillId="11" borderId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="11" borderId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="188" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="13" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="11" borderId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="189" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="186" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="13" borderId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="49" fontId="12" fillId="11" borderId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="190" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="188" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1062,96 +1055,96 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="8" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="13" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="182" fontId="5" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="8" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="5" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="13" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="5" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="5" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="2" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="2" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="2" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="2" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="2" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1160,87 +1153,87 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="189" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="185" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="13" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="182" fontId="5" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="5" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="13" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="13" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="8" applyFont="1"/>
-    <xf numFmtId="182" fontId="6" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="13" applyFont="1"/>
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="6" fillId="0" borderId="7" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="7" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="6" fillId="0" borderId="7" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="7" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="13" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="13" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="189" fontId="5" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="5" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="189" fontId="6" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="6" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="189" fontId="6" fillId="0" borderId="7" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="6" fillId="0" borderId="7" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="7" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="7" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="7" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="7" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="7" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="7" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="7" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="7" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="7" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="7" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="189" fontId="6" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="6" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="7" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="7" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
@@ -1249,38 +1242,38 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="5" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="5" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="8" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="8" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="7" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="7" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="80">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="样式 1" xfId="1"/>
-    <cellStyle name="钎霖_laroux" xfId="2"/>
-    <cellStyle name="千位[0]_laroux" xfId="3"/>
-    <cellStyle name="千分位_ 白土" xfId="4"/>
-    <cellStyle name="烹拳 [0]_97MBO" xfId="5"/>
-    <cellStyle name="霓付_97MBO" xfId="6"/>
-    <cellStyle name="霓付 [0]_97MBO" xfId="7"/>
-    <cellStyle name="常规_Sheet1" xfId="8"/>
-    <cellStyle name="S1-5" xfId="9"/>
-    <cellStyle name="S1-3" xfId="10"/>
-    <cellStyle name="S1-2" xfId="11"/>
-    <cellStyle name="S1-1" xfId="12"/>
-    <cellStyle name="S1-0" xfId="13"/>
-    <cellStyle name="Percent [2]" xfId="14"/>
-    <cellStyle name="Normal_0105第二套审计报表定稿" xfId="15"/>
-    <cellStyle name="Input [yellow]" xfId="16"/>
-    <cellStyle name="Grey" xfId="17"/>
-    <cellStyle name="0,0&#13;&#10;NA&#13;&#10;" xfId="18"/>
-    <cellStyle name="_ET_STYLE_NoName_00_" xfId="19"/>
-    <cellStyle name="?鹎%U龡&amp;H?_x0008_e_x0005_9_x0006__x0007__x0001__x0001_" xfId="20"/>
+    <cellStyle name="?鹎%U龡&amp;H?_x0008_e_x0005_9_x0006__x0007__x0001__x0001_" xfId="1"/>
+    <cellStyle name="_ET_STYLE_NoName_00_" xfId="2"/>
+    <cellStyle name="0,0&#13;&#10;NA&#13;&#10;" xfId="3"/>
+    <cellStyle name="Grey" xfId="4"/>
+    <cellStyle name="Input [yellow]" xfId="5"/>
+    <cellStyle name="Normal_0105第二套审计报表定稿" xfId="6"/>
+    <cellStyle name="Percent [2]" xfId="7"/>
+    <cellStyle name="S1-0" xfId="8"/>
+    <cellStyle name="S1-1" xfId="9"/>
+    <cellStyle name="S1-2" xfId="10"/>
+    <cellStyle name="S1-3" xfId="11"/>
+    <cellStyle name="S1-5" xfId="12"/>
+    <cellStyle name="常规_Sheet1" xfId="13"/>
+    <cellStyle name="霓付 [0]_97MBO" xfId="14"/>
+    <cellStyle name="霓付_97MBO" xfId="15"/>
+    <cellStyle name="烹拳 [0]_97MBO" xfId="16"/>
+    <cellStyle name="千分位_ 白土" xfId="17"/>
+    <cellStyle name="千位[0]_laroux" xfId="18"/>
+    <cellStyle name="钎霖_laroux" xfId="19"/>
+    <cellStyle name="样式 1" xfId="20"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="21" builtinId="52"/>
     <cellStyle name="20% - 强调文字颜色 4" xfId="22" builtinId="42"/>
     <cellStyle name="强调文字颜色 4" xfId="23" builtinId="41"/>
@@ -1316,8 +1309,8 @@
     <cellStyle name="_Book1_1" xfId="53"/>
     <cellStyle name="40% - 强调文字颜色 4" xfId="54" builtinId="43"/>
     <cellStyle name="千位分隔" xfId="55" builtinId="3"/>
-    <cellStyle name="S1-4" xfId="56"/>
-    <cellStyle name="_Book1" xfId="57"/>
+    <cellStyle name="_Book1" xfId="56"/>
+    <cellStyle name="S1-4" xfId="57"/>
     <cellStyle name="已访问的超链接" xfId="58" builtinId="9"/>
     <cellStyle name="标题" xfId="59" builtinId="15"/>
     <cellStyle name="40% - 强调文字颜色 2" xfId="60" builtinId="35"/>
@@ -1363,44 +1356,12 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="2009-05-11-01 (7)"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="装箱单 1 (15)"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
       <sheetName val="XL4Poppy"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
     </sheetDataSet>
   </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </externalLink>
 </file>
 
@@ -1693,8 +1654,8 @@
   <sheetPr/>
   <dimension ref="A2:N42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S42" sqref="S42"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="P32" sqref="P32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33333333333333" defaultRowHeight="14"/>
@@ -1709,9 +1670,9 @@
     <col min="8" max="8" width="10" style="50" customWidth="1"/>
     <col min="9" max="9" width="8.75" style="50" customWidth="1"/>
     <col min="10" max="10" width="9.75" style="50" customWidth="1"/>
-    <col min="11" max="11" width="8.625" style="50" customWidth="1"/>
+    <col min="11" max="11" width="15.3333333333333" style="50" customWidth="1"/>
     <col min="12" max="12" width="9.25" style="52" customWidth="1"/>
-    <col min="13" max="13" width="6.875" style="52" customWidth="1"/>
+    <col min="13" max="13" width="9.33333333333333" style="52" customWidth="1"/>
     <col min="14" max="14" width="3.875" style="50" customWidth="1"/>
     <col min="15" max="32" width="9" style="50"/>
     <col min="33" max="16384" width="9.33333333333333" style="50"/>
@@ -1915,98 +1876,62 @@
       <c r="M10" s="59"/>
       <c r="N10" s="83"/>
     </row>
-    <row r="11" s="49" customFormat="1" spans="1:14">
+    <row r="11" s="49" customFormat="1" ht="66" spans="1:14">
       <c r="A11" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="59">
-        <v>30024</v>
+      <c r="B11" s="59" t="s">
+        <v>28</v>
       </c>
       <c r="C11" s="60" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="61" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="74">
-        <v>0.7</v>
-      </c>
-      <c r="F11" s="74">
-        <f>E11*B11</f>
-        <v>21016.8</v>
+        <v>30</v>
+      </c>
+      <c r="E11" s="74" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="74" t="s">
+        <v>32</v>
       </c>
       <c r="G11" s="59" t="s">
-        <v>30</v>
-      </c>
-      <c r="H11" s="74">
-        <f>91861.98+45875.95</f>
-        <v>137737.93</v>
-      </c>
-      <c r="I11" s="74">
-        <f>14697.92+7340.15</f>
-        <v>22038.07</v>
-      </c>
-      <c r="J11" s="74">
-        <f>I11+H11</f>
-        <v>159776</v>
-      </c>
-      <c r="K11" s="74">
-        <f>H11*0.13</f>
-        <v>17905.9309</v>
-      </c>
-      <c r="L11" s="74">
-        <f>J11-K11</f>
-        <v>141870.0691</v>
-      </c>
-      <c r="M11" s="59">
-        <v>13</v>
+        <v>33</v>
+      </c>
+      <c r="H11" s="74" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" s="74" t="s">
+        <v>35</v>
+      </c>
+      <c r="J11" s="74" t="s">
+        <v>36</v>
+      </c>
+      <c r="K11" s="74" t="s">
+        <v>37</v>
+      </c>
+      <c r="L11" s="74" t="s">
+        <v>38</v>
+      </c>
+      <c r="M11" s="59" t="s">
+        <v>39</v>
       </c>
       <c r="N11" s="83"/>
     </row>
     <row r="12" s="49" customFormat="1" spans="1:14">
-      <c r="A12" s="59" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="59">
-        <v>9156</v>
-      </c>
-      <c r="C12" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="61" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="76">
-        <v>0.44</v>
-      </c>
-      <c r="F12" s="74">
-        <f>E12*B12</f>
-        <v>4028.64</v>
-      </c>
-      <c r="G12" s="59" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="74">
-        <v>25415.52</v>
-      </c>
-      <c r="I12" s="74">
-        <v>4066.48</v>
-      </c>
-      <c r="J12" s="74">
-        <f>I12+H12</f>
-        <v>29482</v>
-      </c>
-      <c r="K12" s="74">
-        <f>H12*0.09</f>
-        <v>2287.3968</v>
-      </c>
-      <c r="L12" s="74">
-        <f>J12-K12</f>
-        <v>27194.6032</v>
-      </c>
-      <c r="M12" s="59">
-        <v>9</v>
-      </c>
+      <c r="A12" s="59"/>
+      <c r="B12" s="59"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="74"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="74"/>
+      <c r="I12" s="74"/>
+      <c r="J12" s="74"/>
+      <c r="K12" s="74"/>
+      <c r="L12" s="74"/>
+      <c r="M12" s="59"/>
       <c r="N12" s="83"/>
     </row>
     <row r="13" s="49" customFormat="1" spans="1:14">
@@ -2311,7 +2236,7 @@
       </c>
       <c r="B20" s="62">
         <f>SUM(B11:B19)</f>
-        <v>39180</v>
+        <v>0</v>
       </c>
       <c r="C20" s="59">
         <v>0</v>
@@ -2324,30 +2249,30 @@
       </c>
       <c r="F20" s="77">
         <f>SUM(F11:F19)</f>
-        <v>25045.44</v>
+        <v>0</v>
       </c>
       <c r="G20" s="59">
         <v>0</v>
       </c>
       <c r="H20" s="78">
         <f>SUM(H11:H19)</f>
-        <v>163153.45</v>
+        <v>0</v>
       </c>
       <c r="I20" s="78">
         <f>SUM(I11:I19)</f>
-        <v>26104.55</v>
+        <v>0</v>
       </c>
       <c r="J20" s="78">
         <f>SUM(J11:J19)</f>
-        <v>189258</v>
+        <v>0</v>
       </c>
       <c r="K20" s="78">
         <f>SUM(K11:K19)</f>
-        <v>20193.3277</v>
+        <v>0</v>
       </c>
       <c r="L20" s="78">
         <f>SUM(L11:L19)</f>
-        <v>169064.6723</v>
+        <v>0</v>
       </c>
       <c r="M20" s="72">
         <v>0</v>
@@ -2359,17 +2284,15 @@
       <c r="B21" s="58"/>
       <c r="C21" s="57"/>
       <c r="D21" s="57" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="E21" s="69"/>
       <c r="F21" s="70"/>
       <c r="G21" s="57"/>
       <c r="H21" s="71" t="s">
-        <v>33</v>
-      </c>
-      <c r="I21" s="70" t="s">
-        <v>34</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="I21" s="70"/>
       <c r="J21" s="70"/>
       <c r="K21" s="70"/>
       <c r="L21" s="70"/>
@@ -2460,7 +2383,7 @@
       <c r="M26" s="80"/>
       <c r="N26" s="64"/>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" s="50" customFormat="1" ht="14.25" customHeight="1" spans="1:14">
       <c r="A27" s="57" t="s">
         <v>2</v>
       </c>
@@ -2484,7 +2407,7 @@
       <c r="M27" s="70"/>
       <c r="N27" s="64"/>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" s="50" customFormat="1" spans="1:14">
       <c r="A28" s="57" t="s">
         <v>6</v>
       </c>
@@ -2506,7 +2429,7 @@
       <c r="M28" s="70"/>
       <c r="N28" s="64"/>
     </row>
-    <row r="29" ht="14.25" customHeight="1" spans="1:14">
+    <row r="29" s="49" customFormat="1" ht="17.25" customHeight="1" spans="1:14">
       <c r="A29" s="57" t="s">
         <v>9</v>
       </c>
@@ -2560,7 +2483,7 @@
         <v>20</v>
       </c>
       <c r="M30" s="84" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="N30" s="59" t="s">
         <v>21</v>
@@ -2592,105 +2515,65 @@
       <c r="M31" s="85"/>
       <c r="N31" s="59"/>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" ht="66" spans="1:14">
       <c r="A32" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="59">
-        <v>30024</v>
+      <c r="B32" s="59" t="s">
+        <v>28</v>
       </c>
       <c r="C32" s="60" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D32" s="61" t="s">
-        <v>29</v>
-      </c>
-      <c r="E32" s="74">
-        <v>0.7</v>
-      </c>
-      <c r="F32" s="74">
-        <f>E32*B32</f>
-        <v>21016.8</v>
+        <v>30</v>
+      </c>
+      <c r="E32" s="74" t="s">
+        <v>31</v>
+      </c>
+      <c r="F32" s="74" t="s">
+        <v>32</v>
       </c>
       <c r="G32" s="59" t="s">
-        <v>30</v>
-      </c>
-      <c r="H32" s="74">
-        <f>91861.98+45875.95</f>
-        <v>137737.93</v>
-      </c>
-      <c r="I32" s="74">
-        <f>14697.92+7340.15</f>
-        <v>22038.07</v>
-      </c>
-      <c r="J32" s="74">
-        <f>I32+H32</f>
-        <v>159776</v>
-      </c>
-      <c r="K32" s="74">
-        <f>H32*0.13</f>
-        <v>17905.9309</v>
-      </c>
-      <c r="L32" s="74">
-        <f>J32-K32</f>
-        <v>141870.0691</v>
-      </c>
-      <c r="M32" s="86">
-        <f>L32/F32</f>
-        <v>6.75031732233261</v>
-      </c>
-      <c r="N32" s="59">
-        <v>13</v>
+        <v>33</v>
+      </c>
+      <c r="H32" s="74" t="s">
+        <v>34</v>
+      </c>
+      <c r="I32" s="74" t="s">
+        <v>35</v>
+      </c>
+      <c r="J32" s="74" t="s">
+        <v>36</v>
+      </c>
+      <c r="K32" s="74" t="s">
+        <v>37</v>
+      </c>
+      <c r="L32" s="74" t="s">
+        <v>38</v>
+      </c>
+      <c r="M32" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="N32" s="59" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:14">
-      <c r="A33" s="59" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33" s="59">
-        <v>9156</v>
-      </c>
-      <c r="C33" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="D33" s="61" t="s">
-        <v>29</v>
-      </c>
-      <c r="E33" s="76">
-        <v>0.44</v>
-      </c>
-      <c r="F33" s="74">
-        <f>E33*B33</f>
-        <v>4028.64</v>
-      </c>
-      <c r="G33" s="59" t="s">
-        <v>30</v>
-      </c>
-      <c r="H33" s="74">
-        <v>25415.52</v>
-      </c>
-      <c r="I33" s="74">
-        <v>4066.48</v>
-      </c>
-      <c r="J33" s="74">
-        <f>I33+H33</f>
-        <v>29482</v>
-      </c>
-      <c r="K33" s="74">
-        <f>H33*0.09</f>
-        <v>2287.3968</v>
-      </c>
-      <c r="L33" s="74">
-        <f>J33-K33</f>
-        <v>27194.6032</v>
-      </c>
-      <c r="M33" s="86">
-        <f>L33/F33</f>
-        <v>6.75031851940109</v>
-      </c>
-      <c r="N33" s="59">
-        <v>9</v>
-      </c>
+      <c r="A33" s="59"/>
+      <c r="B33" s="59"/>
+      <c r="C33" s="60"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="76"/>
+      <c r="F33" s="74"/>
+      <c r="G33" s="59"/>
+      <c r="H33" s="74"/>
+      <c r="I33" s="74"/>
+      <c r="J33" s="74"/>
+      <c r="K33" s="74"/>
+      <c r="L33" s="74"/>
+      <c r="M33" s="86"/>
+      <c r="N33" s="59"/>
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="59">
@@ -3008,7 +2891,7 @@
       </c>
       <c r="B41" s="62">
         <f>SUM(B32:B40)</f>
-        <v>39180</v>
+        <v>0</v>
       </c>
       <c r="C41" s="59">
         <v>0</v>
@@ -3021,30 +2904,30 @@
       </c>
       <c r="F41" s="77">
         <f>SUM(F32:F40)</f>
-        <v>25045.44</v>
+        <v>0</v>
       </c>
       <c r="G41" s="59">
         <v>0</v>
       </c>
       <c r="H41" s="78">
         <f>SUM(H32:H40)</f>
-        <v>163153.45</v>
+        <v>0</v>
       </c>
       <c r="I41" s="78">
         <f>SUM(I32:I40)</f>
-        <v>26104.55</v>
+        <v>0</v>
       </c>
       <c r="J41" s="78">
         <f>SUM(J32:J40)</f>
-        <v>189258</v>
+        <v>0</v>
       </c>
       <c r="K41" s="78">
         <f>SUM(K32:K40)</f>
-        <v>20193.3277</v>
+        <v>0</v>
       </c>
       <c r="L41" s="78">
         <f>SUM(L32:L40)</f>
-        <v>169064.6723</v>
+        <v>0</v>
       </c>
       <c r="M41" s="72">
         <v>0</v>
@@ -3058,20 +2941,18 @@
       <c r="B42" s="58"/>
       <c r="C42" s="57"/>
       <c r="D42" s="57" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="E42" s="69"/>
       <c r="F42" s="70"/>
       <c r="G42" s="57"/>
       <c r="H42" s="71" t="s">
-        <v>33</v>
-      </c>
-      <c r="I42" s="70" t="s">
-        <v>34</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="I42" s="70"/>
       <c r="J42" s="70"/>
       <c r="K42" s="70" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="L42" s="70"/>
       <c r="M42" s="70"/>
@@ -3881,20 +3762,20 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="2" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" ht="13.75" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" ht="13.75" spans="1:3">
       <c r="A3" s="3" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:1">
@@ -3905,44 +3786,44 @@
     <row r="6" ht="13.75"/>
     <row r="7" spans="1:1">
       <c r="A7" s="5" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="6" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="7" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="6" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" ht="13.75" spans="1:1">
       <c r="A11" s="8" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" ht="13.75"/>
     <row r="14" ht="13.75" spans="1:1">
       <c r="A14" s="4" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" ht="13.75"/>
     <row r="17" ht="13.75" spans="3:3">
       <c r="C17" s="4" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="9" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" ht="14" spans="3:3">
@@ -3950,7 +3831,7 @@
     </row>
     <row r="26" ht="13.75" spans="3:3">
       <c r="C26" s="11" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
